--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H2">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J2">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>1976.225227727378</v>
+        <v>1.108582813462667</v>
       </c>
       <c r="R2">
-        <v>17786.0270495464</v>
+        <v>9.977245321164</v>
       </c>
       <c r="S2">
-        <v>0.08510467279348043</v>
+        <v>0.0001017876807583935</v>
       </c>
       <c r="T2">
-        <v>0.08510467279348043</v>
+        <v>0.0001017876807583935</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H3">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J3">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>967.5249599386659</v>
+        <v>5.279870637944223</v>
       </c>
       <c r="R3">
-        <v>8707.724639447993</v>
+        <v>47.518835741498</v>
       </c>
       <c r="S3">
-        <v>0.04166574435940984</v>
+        <v>0.0004847863239571869</v>
       </c>
       <c r="T3">
-        <v>0.04166574435940984</v>
+        <v>0.0004847863239571869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H4">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J4">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>476.903775023496</v>
+        <v>2.511930397530889</v>
       </c>
       <c r="R4">
-        <v>4292.133975211464</v>
+        <v>22.607373577778</v>
       </c>
       <c r="S4">
-        <v>0.02053750714134149</v>
+        <v>0.0002306400264248632</v>
       </c>
       <c r="T4">
-        <v>0.02053750714134149</v>
+        <v>0.0002306400264248632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>8.265822</v>
+        <v>0.04510733333333333</v>
       </c>
       <c r="H5">
-        <v>24.797466</v>
+        <v>0.135322</v>
       </c>
       <c r="I5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="J5">
-        <v>0.2082338764513023</v>
+        <v>0.001347508866645585</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>1414.76842250826</v>
+        <v>5.775509730931112</v>
       </c>
       <c r="R5">
-        <v>12732.91580257434</v>
+        <v>51.97958757838</v>
       </c>
       <c r="S5">
-        <v>0.06092595215707047</v>
+        <v>0.0005302948355051409</v>
       </c>
       <c r="T5">
-        <v>0.06092595215707047</v>
+        <v>0.0005302948355051409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J6">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>2698.290103063825</v>
+        <v>277.3698415381467</v>
       </c>
       <c r="R6">
-        <v>24284.61092757442</v>
+        <v>2496.32857384332</v>
       </c>
       <c r="S6">
-        <v>0.1161998607755917</v>
+        <v>0.02546750007273306</v>
       </c>
       <c r="T6">
-        <v>0.1161998607755917</v>
+        <v>0.02546750007273305</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J7">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
-        <v>1321.035167065415</v>
+        <v>1321.035167065416</v>
       </c>
       <c r="R7">
         <v>11889.31650358874</v>
       </c>
       <c r="S7">
-        <v>0.05688939907475579</v>
+        <v>0.1212945972307318</v>
       </c>
       <c r="T7">
-        <v>0.05688939907475579</v>
+        <v>0.1212945972307318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J8">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>651.15287377416</v>
+        <v>628.4904725716823</v>
       </c>
       <c r="R8">
-        <v>5860.375863967441</v>
+        <v>5656.414253145141</v>
       </c>
       <c r="S8">
-        <v>0.02804141526156505</v>
+        <v>0.05770663842604544</v>
       </c>
       <c r="T8">
-        <v>0.02804141526156505</v>
+        <v>0.05770663842604544</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="J9">
-        <v>0.2843174958338682</v>
+        <v>0.3371496619592149</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>1931.690567967933</v>
+        <v>1445.045150814378</v>
       </c>
       <c r="R9">
-        <v>17385.2151117114</v>
+        <v>13005.4063573294</v>
       </c>
       <c r="S9">
-        <v>0.08318682072195563</v>
+        <v>0.1326809262297047</v>
       </c>
       <c r="T9">
-        <v>0.08318682072195563</v>
+        <v>0.1326809262297047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H10">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J10">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>150.0492353216882</v>
+        <v>21.79632313656534</v>
       </c>
       <c r="R10">
-        <v>1350.443117895194</v>
+        <v>196.166908229088</v>
       </c>
       <c r="S10">
-        <v>0.006461758961375751</v>
+        <v>0.002001291337181834</v>
       </c>
       <c r="T10">
-        <v>0.006461758961375751</v>
+        <v>0.002001291337181833</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H11">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J11">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>73.46145487697976</v>
+        <v>103.8098057685351</v>
       </c>
       <c r="R11">
-        <v>661.1530938928179</v>
+        <v>934.2882519168162</v>
       </c>
       <c r="S11">
-        <v>0.003163563035488608</v>
+        <v>0.009531592264319672</v>
       </c>
       <c r="T11">
-        <v>0.003163563035488608</v>
+        <v>0.009531592264319672</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H12">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J12">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>36.20996522071199</v>
+        <v>49.38814311050846</v>
       </c>
       <c r="R12">
-        <v>325.889686986408</v>
+        <v>444.4932879945761</v>
       </c>
       <c r="S12">
-        <v>0.001559355279314912</v>
+        <v>0.004534712682835204</v>
       </c>
       <c r="T12">
-        <v>0.001559355279314912</v>
+        <v>0.004534712682835204</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6276006666666666</v>
+        <v>0.8868746666666668</v>
       </c>
       <c r="H13">
-        <v>1.882802</v>
+        <v>2.660624</v>
       </c>
       <c r="I13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="J13">
-        <v>0.01581061383652123</v>
+        <v>0.02649395095261704</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>107.4193958138866</v>
+        <v>113.5547789889956</v>
       </c>
       <c r="R13">
-        <v>966.7745623249797</v>
+        <v>1021.99301090096</v>
       </c>
       <c r="S13">
-        <v>0.004625936560341955</v>
+        <v>0.01042635466828033</v>
       </c>
       <c r="T13">
-        <v>0.004625936560341955</v>
+        <v>0.01042635466828033</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H14">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J14">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>4665.847183435169</v>
+        <v>522.4158046135807</v>
       </c>
       <c r="R14">
-        <v>41992.62465091653</v>
+        <v>4701.742241522226</v>
       </c>
       <c r="S14">
-        <v>0.2009312462361758</v>
+        <v>0.04796709140479311</v>
       </c>
       <c r="T14">
-        <v>0.2009312462361758</v>
+        <v>0.0479670914047931</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H15">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J15">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>2284.316355188137</v>
+        <v>2488.120719607512</v>
       </c>
       <c r="R15">
-        <v>20558.84719669323</v>
+        <v>22393.08647646761</v>
       </c>
       <c r="S15">
-        <v>0.09837238855039081</v>
+        <v>0.2284538731975234</v>
       </c>
       <c r="T15">
-        <v>0.09837238855039081</v>
+        <v>0.2284538731975234</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H16">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J16">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>1125.964846639404</v>
+        <v>1183.738484687959</v>
       </c>
       <c r="R16">
-        <v>10133.68361975464</v>
+        <v>10653.64636219163</v>
       </c>
       <c r="S16">
-        <v>0.04848884049537443</v>
+        <v>0.108688312246598</v>
       </c>
       <c r="T16">
-        <v>0.04848884049537443</v>
+        <v>0.108688312246598</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.51551966666667</v>
+        <v>21.25667433333333</v>
       </c>
       <c r="H17">
-        <v>58.546559</v>
+        <v>63.77002299999999</v>
       </c>
       <c r="I17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215225</v>
       </c>
       <c r="J17">
-        <v>0.4916380138783083</v>
+        <v>0.6350088782215224</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>3340.253512988656</v>
+        <v>2721.688922556575</v>
       </c>
       <c r="R17">
-        <v>30062.2816168979</v>
+        <v>24495.20030300917</v>
       </c>
       <c r="S17">
-        <v>0.1438455385963672</v>
+        <v>0.249899601372608</v>
       </c>
       <c r="T17">
-        <v>0.1438455385963672</v>
+        <v>0.2498996013726079</v>
       </c>
     </row>
   </sheetData>
